--- a/ТЭП_апрель_2023_накопительным_Название компании.xlsx
+++ b/ТЭП_апрель_2023_накопительным_Название компании.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pushin_in\Desktop\Новая папка\tep_consolidation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6251D31A-BB9E-4C8B-8E2F-0D7254C15CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3CEE68-1436-48A9-A9CE-9CD634A52572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +17,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>Автор</author>
   </authors>
   <commentList>
     <comment ref="C26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000089000000}">
@@ -1107,7 +1102,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
